--- a/big_small_INVESTMENT_DETAILS_UPDATE.xlsx
+++ b/big_small_INVESTMENT_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView topLeftCell="D106" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119:K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,28 +4408,252 @@
       <c r="I118" s="15"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I119" s="15"/>
+      <c r="A119" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H119" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I119" s="15">
+        <v>434</v>
+      </c>
+      <c r="J119" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K119" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>90.416666666666671</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I120" s="15"/>
+      <c r="A120" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H120" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I120" s="15">
+        <v>434</v>
+      </c>
+      <c r="J120" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K120" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>54.25</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I121" s="15"/>
+      <c r="A121" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="14">
+        <v>500</v>
+      </c>
+      <c r="H121" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I121" s="15">
+        <v>434</v>
+      </c>
+      <c r="J121" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K121" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>18.083333333333332</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I122" s="15"/>
+      <c r="A122" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H122" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I122" s="15">
+        <v>434</v>
+      </c>
+      <c r="J122" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K122" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>54.25</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I123" s="15"/>
+      <c r="A123" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H123" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I123" s="15">
+        <v>434</v>
+      </c>
+      <c r="J123" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K123" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>36.166666666666664</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I124" s="15"/>
+      <c r="A124" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H124" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I124" s="15">
+        <v>434</v>
+      </c>
+      <c r="J124" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K124" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I125" s="15"/>
+      <c r="A125" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H125" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I125" s="15">
+        <v>434</v>
+      </c>
+      <c r="J125" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K125" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I126" s="15"/>
+      <c r="A126" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H126" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I126" s="15">
+        <v>434</v>
+      </c>
+      <c r="J126" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K126" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>36.166666666666664</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I127" s="15"/>
@@ -5444,7 +5668,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1108.232099602995</v>
+        <v>1198.6487662696618</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -5465,7 +5689,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>775.06884391175436</v>
+        <v>829.31884391175436</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -5486,7 +5710,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>276.17035906326947</v>
+        <v>294.25369239660279</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -5507,7 +5731,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>771.89996607869739</v>
+        <v>826.14996607869739</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -5528,7 +5752,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>276.88332202623246</v>
+        <v>313.04998869289915</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -5549,7 +5773,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1029.1999547715964</v>
+        <v>1101.5332881049296</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -5570,7 +5794,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>836.29696969696977</v>
+        <v>908.63030303030314</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -5591,7 +5815,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>195.34848484848484</v>
+        <v>231.5151515151515</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -5615,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F602"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5895,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>45981</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -5680,13 +5904,13 @@
       <c r="C3" s="10">
         <v>500</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>2700</v>
       </c>
       <c r="E3" s="11">
         <v>18.87037037037037</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5726,7 +5950,7 @@
       <c r="E5" s="15">
         <v>26.692537313432837</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5766,7 +5990,7 @@
       <c r="E7" s="15">
         <v>7.8507462686567155</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5806,7 +6030,7 @@
       <c r="E9" s="15">
         <v>7.8507462686567155</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7447,31 +7671,164 @@
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="28">
+        <v>46005</v>
+      </c>
       <c r="B102" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="16"/>
+      <c r="C102" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D102" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="15">
+        <v>90.416666666666671</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="16"/>
+      <c r="A103" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D103" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E103" s="15">
+        <v>54.25</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="16"/>
+      <c r="A104" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="14">
+        <v>500</v>
+      </c>
+      <c r="D104" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E104" s="15">
+        <v>18.083333333333332</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="16"/>
+      <c r="A105" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D105" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E105" s="15">
+        <v>54.25</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="16"/>
+      <c r="A106" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D106" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E106" s="15">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="16"/>
+      <c r="A107" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D107" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E107" s="15">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="16"/>
+      <c r="A108" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D108" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E108" s="15">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="16"/>
+      <c r="A109" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D109" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E109" s="15">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D110" s="16"/>
@@ -9067,8 +9424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
